--- a/xlsx/拉斯維加斯_intext.xlsx
+++ b/xlsx/拉斯維加斯_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美國</t>
   </si>
   <si>
-    <t>政策_政策_美國_拉斯維加斯</t>
+    <t>体育运动_体育运动_赌博_拉斯維加斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
